--- a/meta/9-4-1-1.xlsx
+++ b/meta/9-4-1-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ЦУР\ЦУР 2020\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,9 +126,6 @@
     <t xml:space="preserve">www.stat.kg </t>
   </si>
   <si>
-    <t>Выбросы загрязняющих веществ в атмосферный воздух от стационарных источников, в расчете на одного жителя территории – это общий объем загрязняющих выбросов в атмосферу стационарными источниками в региональном разрезе в расчете на на 1кв.км.</t>
-  </si>
-  <si>
     <t>Выброс в атмосферу загрязняющих веществ - поступление в атмосферный воздух загрязняющих веществ (оказывающих неблагоприятное действие на здоровье или деятельность населения, на окружающую среду) от стационарных (непередвижных)
 источников выбросов (организованных или неорганизованных).
 Стационарный источник загрязнения атмосферы - любой (точечный, площадной и т.д.) источник с организованным или неорганизованным выбросом загрязняющих веществ в атмосферный воздух, дислоцируемый или функционирующий постоянно или временно в границах участка территории (местности) объекта, предприятия, юридического или физического лица, принадлежащего ему или закрепленного за ним в соответствии с законодательством</t>
@@ -163,6 +160,9 @@
   <si>
     <t>http://www.stat.kg/ru/statistics/turizm-otdyh-ohrana-okruzhayushej-sredy/ 
 Национальная платформа отчетности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Выбросы загрязняющих веществ в атмосферный воздух от стационарных источников, в расчете на 1 кв.км территории – это общий объем загрязняющих выбросов в атмосферу стационарными источниками в региональном разрезе в расчете на 1 кв.км.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/meta/9-4-1-1.xlsx
+++ b/meta/9-4-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ЦУР\ЦУР 2020\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="8.5.1.1" sheetId="1" r:id="rId1"/>
@@ -111,19 +111,10 @@
     <t>9.4.1.1 Объем выбросов загрязняющих веществ, отходящих от стационарных источников на 1кв.км и по территории</t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sdg_nsc@stat.kg </t>
   </si>
   <si>
     <t>0(312) 62-56-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.kg </t>
   </si>
   <si>
     <t>Выброс в атмосферу загрязняющих веществ - поступление в атмосферный воздух загрязняющих веществ (оказывающих неблагоприятное действие на здоровье или деятельность населения, на окружающую среду) от стационарных (непередвижных)
@@ -163,13 +154,22 @@
   </si>
   <si>
     <t>Выбросы загрязняющих веществ в атмосферный воздух от стационарных источников, в расчете на 1 кв.км территории – это общий объем загрязняющих выбросов в атмосферу стационарными источниками в региональном разрезе в расчете на 1 кв.км.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gov.kg </t>
+  </si>
+  <si>
+    <t>Мамбеталиев Т.А.</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление цифрового развития и статистики устойчивого развития )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -306,8 +313,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,7 +535,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -577,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -585,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -593,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -601,15 +612,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
+      <c r="B10" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.2">
@@ -631,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -661,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -675,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -683,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -703,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -711,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -719,7 +730,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -727,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1716,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>